--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_441__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_441__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,52 +6118,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>0.8119387626647949</c:v>
+                  <c:v>0.8119328618049622</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>94.96306610107422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.50085830688477</c:v>
+                  <c:v>47.50086212158203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.028876781463623</c:v>
+                  <c:v>3.028870820999146</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>95.16580963134766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.06649398803711</c:v>
+                  <c:v>58.06648254394531</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.53657531738281</c:v>
+                  <c:v>95.53658294677734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.169280052185059</c:v>
+                  <c:v>6.169273853302002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.1151832491159439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.94131660461426</c:v>
+                  <c:v>28.94132423400879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.47805786132812</c:v>
+                  <c:v>53.47806930541992</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>92.40505218505859</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.78987121582031</c:v>
+                  <c:v>26.78987503051758</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>93.76220703125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0883408710360527</c:v>
+                  <c:v>0.08834380656480789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.15425109863281</c:v>
+                  <c:v>36.15425491333008</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.03166054934263229</c:v>
@@ -6172,7 +6172,7 @@
                   <c:v>95.61273193359375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.88172912597656</c:v>
+                  <c:v>58.88171768188477</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.04403373971581459</c:v>
@@ -6190,19 +6190,19 @@
                   <c:v>94.63798522949219</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.689074158668518</c:v>
+                  <c:v>1.689079999923706</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>93.09339904785156</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>73.48999786376953</c:v>
+                  <c:v>73.49000549316406</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>68.49018859863281</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.09537850320339203</c:v>
+                  <c:v>0.09538144618272781</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.0701676532626152</c:v>
@@ -6229,13 +6229,13 @@
                   <c:v>-0.04775833711028099</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.2100796401500702</c:v>
+                  <c:v>-0.2100825905799866</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.2245253175497055</c:v>
+                  <c:v>-0.2245135605335236</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>94.64900207519531</c:v>
+                  <c:v>94.64900970458984</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>51.26339721679688</c:v>
@@ -6244,64 +6244,64 @@
                   <c:v>86.75875091552734</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.0128229632973671</c:v>
+                  <c:v>-0.01282590255141258</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>48.00329208374023</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.188287734985352</c:v>
+                  <c:v>8.188282012939453</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.861549139022827</c:v>
+                  <c:v>-1.861546158790588</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.285259485244751</c:v>
+                  <c:v>0.2852624356746674</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>93.15763092041016</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.08484850823879242</c:v>
+                  <c:v>-0.08485144376754761</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>95.37709808349609</c:v>
+                  <c:v>95.37709045410156</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>44.64419174194336</c:v>
+                  <c:v>44.64420318603516</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>57.12794876098633</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>85.112548828125</c:v>
+                  <c:v>85.11255645751953</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.577157020568848</c:v>
+                  <c:v>5.577151298522949</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43.79070663452148</c:v>
+                  <c:v>43.79070281982422</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>48.00329208374023</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>92.74044036865234</c:v>
+                  <c:v>92.74042510986328</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.396571159362793</c:v>
+                  <c:v>-0.3965829014778137</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>48.00329208374023</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.70127868652344</c:v>
+                  <c:v>50.70126724243164</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.3618004024028778</c:v>
+                  <c:v>-0.3618062734603882</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.05444026738405228</c:v>
+                  <c:v>-0.05444614961743355</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>94.23267364501953</c:v>
@@ -6310,7 +6310,7 @@
                   <c:v>0.08409594744443893</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>90.44609832763672</c:v>
+                  <c:v>90.44610595703125</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.2182520031929016</c:v>
@@ -6322,10 +6322,10 @@
                   <c:v>-0.2630324363708496</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>82.29597473144531</c:v>
+                  <c:v>82.29598999023438</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>87.21662902832031</c:v>
+                  <c:v>87.21664428710938</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>94.853759765625</c:v>
@@ -6334,22 +6334,22 @@
                   <c:v>94.21273040771484</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>95.90388488769531</c:v>
+                  <c:v>95.90386199951172</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>7.581969261169434</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>92.61637115478516</c:v>
+                  <c:v>92.61637878417969</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>59.74103927612305</c:v>
+                  <c:v>59.74102783203125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>95.342041015625</c:v>
+                  <c:v>95.34202575683594</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>93.85884857177734</c:v>
+                  <c:v>93.85884094238281</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>93.19933319091797</c:v>
@@ -6358,19 +6358,19 @@
                   <c:v>96.43697357177734</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.1411789953708649</c:v>
+                  <c:v>-0.1411819458007812</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-0.3877167701721191</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.5375855565071106</c:v>
+                  <c:v>-0.5375825762748718</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>78.28499603271484</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>96.66397857666016</c:v>
+                  <c:v>96.66397094726562</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>92.75791931152344</c:v>
@@ -6382,7 +6382,7 @@
                   <c:v>-2.392229318618774</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.02777426689863205</c:v>
+                  <c:v>-0.02777720801532269</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>93.79812622070312</c:v>
@@ -6394,7 +6394,7 @@
                   <c:v>0.1030805110931396</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>50.30520629882812</c:v>
+                  <c:v>50.30521392822266</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>94.75814056396484</c:v>
@@ -6406,22 +6406,22 @@
                   <c:v>36.16248321533203</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>85.33551025390625</c:v>
+                  <c:v>85.33549499511719</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>94.62229919433594</c:v>
+                  <c:v>94.62230682373047</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.1782779842615128</c:v>
+                  <c:v>-0.1782750487327576</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>94.08841705322266</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.05091557279229164</c:v>
+                  <c:v>-0.05092145130038261</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>19.19170761108398</c:v>
+                  <c:v>19.19169235229492</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>84.94925689697266</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8119387626647949</v>
+        <v>0.8119328618049622</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>47.50085830688477</v>
+        <v>47.50086212158203</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.028876781463623</v>
+        <v>3.028870820999146</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>58.06649398803711</v>
+        <v>58.06648254394531</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7311,7 +7311,7 @@
         <v>98.1893</v>
       </c>
       <c r="F8">
-        <v>95.53657531738281</v>
+        <v>95.53658294677734</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6.169280052185059</v>
+        <v>6.169273853302002</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>28.94131660461426</v>
+        <v>28.94132423400879</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>53.47805786132812</v>
+        <v>53.47806930541992</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.78987121582031</v>
+        <v>26.78987503051758</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>0.0883408710360527</v>
+        <v>0.08834380656480789</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>36.15425109863281</v>
+        <v>36.15425491333008</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>58.88172912597656</v>
+        <v>58.88171768188477</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.689074158668518</v>
+        <v>1.689079999923706</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>73.48999786376953</v>
+        <v>73.49000549316406</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.09537850320339203</v>
+        <v>0.09538144618272781</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-0.2100796401500702</v>
+        <v>-0.2100825905799866</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-0.2245253175497055</v>
+        <v>-0.2245135605335236</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>81.7872</v>
       </c>
       <c r="F41">
-        <v>94.64900207519531</v>
+        <v>94.64900970458984</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.0128229632973671</v>
+        <v>-0.01282590255141258</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>8.188287734985352</v>
+        <v>8.188282012939453</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-1.861549139022827</v>
+        <v>-1.861546158790588</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.285259485244751</v>
+        <v>0.2852624356746674</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.08484850823879242</v>
+        <v>-0.08485144376754761</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>95.37709808349609</v>
+        <v>95.37709045410156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>44.64419174194336</v>
+        <v>44.64420318603516</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>85.112548828125</v>
+        <v>85.11255645751953</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>5.577157020568848</v>
+        <v>5.577151298522949</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>43.79070663452148</v>
+        <v>43.79070281982422</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>92.74044036865234</v>
+        <v>92.74042510986328</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.396571159362793</v>
+        <v>-0.3965829014778137</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>50.70127868652344</v>
+        <v>50.70126724243164</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.3618004024028778</v>
+        <v>-0.3618062734603882</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.05444026738405228</v>
+        <v>-0.05444614961743355</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>93.4378</v>
       </c>
       <c r="F66">
-        <v>90.44609832763672</v>
+        <v>90.44610595703125</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>82.29597473144531</v>
+        <v>82.29598999023438</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>87.21662902832031</v>
+        <v>87.21664428710938</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>94.6035</v>
       </c>
       <c r="F74">
-        <v>95.90388488769531</v>
+        <v>95.90386199951172</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>92.61637115478516</v>
+        <v>92.61637878417969</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>59.74103927612305</v>
+        <v>59.74102783203125</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>97.7385</v>
       </c>
       <c r="F78">
-        <v>95.342041015625</v>
+        <v>95.34202575683594</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>94.49079999999999</v>
       </c>
       <c r="F79">
-        <v>93.85884857177734</v>
+        <v>93.85884094238281</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>-0.1411789953708649</v>
+        <v>-0.1411819458007812</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.5375855565071106</v>
+        <v>-0.5375825762748718</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>95.37090000000001</v>
       </c>
       <c r="F86">
-        <v>96.66397857666016</v>
+        <v>96.66397094726562</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.02777426689863205</v>
+        <v>-0.02777720801532269</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>50.30520629882812</v>
+        <v>50.30521392822266</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>85.33551025390625</v>
+        <v>85.33549499511719</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>96.6401</v>
       </c>
       <c r="F99">
-        <v>94.62229919433594</v>
+        <v>94.62230682373047</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-0.1782779842615128</v>
+        <v>-0.1782750487327576</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-0.05091557279229164</v>
+        <v>-0.05092145130038261</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>19.19170761108398</v>
+        <v>19.19169235229492</v>
       </c>
     </row>
     <row r="104" spans="1:6">
